--- a/biology/Biologie cellulaire et moléculaire/Journal_of_the_National_Cancer_Institute/Journal_of_the_National_Cancer_Institute.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Journal_of_the_National_Cancer_Institute/Journal_of_the_National_Cancer_Institute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal of the National Cancer Institute (JNCI) est une publication médicale revue par les pairs fondée en août 1940 abordant la recherche en oncologie. Il est diffusé deux fois par mois par Oxford University Press, avec Carmen J. Allegra pour rédacteur en chef. Il a fusionné avec Cancer Treatment Reports en janvier 1988. JNCI était le journal officiel de l'Institut national du cancer (NCI), jusqu'en 1996 quand le NCI le JNCI s'accordèrent pour travailler séparément. JNCI devint indépendant du NCI dans les cinq années qui suivirent.
@@ -513,20 +525,22 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'histoire du JNCI est associée à celle de quelques autres journaux. Voici des repères chronologiques pour le JNCI et les JNCI Monographs :
-1940 : le Journal of the National Cancer Institute ( (ISSN 0027-8874)) est créé par le National Cancer Institute (NCI)[1]
-1959 : le National Cancer Institute Monograph est lancé par le NCI[2]
-1959 : les Cancer Chemotherapy Reports  (ISSN 0576-6559) sont créés par le Cancer Chemotherapy National Service Center (CCNSC)[3]
-1966 : les Cancer Chemotherapy Reports sont repris par le NCI[3]
-1968 : les Cancer Chemotherapy Reports sont scindés en trois parties : Cancer Chemotherapy Reports, Part 1  (ISSN 0069-0112), Cancer Chemotherapy Reports, Part 2  (ISSN 0069-0120) et Cancer Chemotherapy Reports, Part 3  (ISSN 0069-0139)[4],[5],[6]
-1976 : les trois volets des Cancer Chemotherapy Reports sont fusionnés et rebaptisés Cancer Treatment Reports  (ISSN 0576-6559)[4],[5],[6]
-1983 : les Cancer Treatment Symposia  (ISSN 0742-1761) sont lancés par le NCI[7]
-1986 : les Cancer Treatment Symposia fusionnent avec le National Cancer Institute Monograph, et rebaptisés NCI Monographs  (ISSN 0893-2751)[7]
-1988 : le Journal of the National Cancer Institute absorbe les Cancer Treatment Reports[8]
-1990 : les NCI Monographs changent de nom pour Journal of the National Cancer Institute Monographs  (ISSN 1052-6773)[9]
-1996 : Oxford University Press reprend le Journal of the National Cancer Institute et le Journal of the National Cancer Institute Monographs , en cinq ans environ[10].</t>
+1940 : le Journal of the National Cancer Institute ( (ISSN 0027-8874)) est créé par le National Cancer Institute (NCI)
+1959 : le National Cancer Institute Monograph est lancé par le NCI
+1959 : les Cancer Chemotherapy Reports  (ISSN 0576-6559) sont créés par le Cancer Chemotherapy National Service Center (CCNSC)
+1966 : les Cancer Chemotherapy Reports sont repris par le NCI
+1968 : les Cancer Chemotherapy Reports sont scindés en trois parties : Cancer Chemotherapy Reports, Part 1  (ISSN 0069-0112), Cancer Chemotherapy Reports, Part 2  (ISSN 0069-0120) et Cancer Chemotherapy Reports, Part 3  (ISSN 0069-0139)
+1976 : les trois volets des Cancer Chemotherapy Reports sont fusionnés et rebaptisés Cancer Treatment Reports  (ISSN 0576-6559)
+1983 : les Cancer Treatment Symposia  (ISSN 0742-1761) sont lancés par le NCI
+1986 : les Cancer Treatment Symposia fusionnent avec le National Cancer Institute Monograph, et rebaptisés NCI Monographs  (ISSN 0893-2751)
+1988 : le Journal of the National Cancer Institute absorbe les Cancer Treatment Reports
+1990 : les NCI Monographs changent de nom pour Journal of the National Cancer Institute Monographs  (ISSN 1052-6773)
+1996 : Oxford University Press reprend le Journal of the National Cancer Institute et le Journal of the National Cancer Institute Monographs , en cinq ans environ.</t>
         </is>
       </c>
     </row>
@@ -554,7 +568,9 @@
           <t>Résumés et indexation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résumés du JNCI sont indexés et repris par :
 Abstracts in Anthropology (en)
@@ -563,12 +579,12 @@
 American Statistics Index
 Annals of Behavioral Medicine (en)
 Biological Abstracts (en)
-BIOSIS Previews (en)[11]
+BIOSIS Previews (en)
 CAB Abstracts (en)
 CINAHL (en)
 CSA Oncogenes and Growth Factor Abstracts
-Current Contents/Clinical Medicine[11]
-Current Contents/Life Sciences[11]
+Current Contents/Clinical Medicine
+Current Contents/Life Sciences
 Dairy Science Abstracts (en)
 Derwent Drug File
 Elsevier BIOBASE - Current Awareness in Biological Sciences (en) (CABS)
@@ -578,7 +594,7 @@
 Global Health (en)
 Health &amp; Safety Science Abstracts
 IDIS
-Index Medicus/MEDLINE/PubMed[12]
+Index Medicus/MEDLINE/PubMed
 INIS Atomindex
 International Pharmaceutical Abstracts
 Nutrition Abstracts and Reviews
@@ -592,17 +608,17 @@
 Risk Abstracts
 Rural Development Abstracts
 Sage Race Relations Abstracts
-Science Citation Index[11]
+Science Citation Index
 Soybean Abstracts
 The Standard Periodical Directory
 Toxicology Abstracts
 Tropical Diseases Bulletin (en)
 Weed Abstracts (en)
-Selon les Journal Citation Reports, la revue bénéficie d'un facteur d'impact de 12,583 pour l'année 2014, au 8e rang parmi 202 journaux de la catégorie Oncologie[13].
+Selon les Journal Citation Reports, la revue bénéficie d'un facteur d'impact de 12,583 pour l'année 2014, au 8e rang parmi 202 journaux de la catégorie Oncologie.
 Les résumés des JNCI Monographs sont indexés et repris dans :
 Abstracts in Anthropology
 Abstracts on Hygiene and Communicable Diseases
-BIOSIS Previews[11]
+BIOSIS Previews
 CAB Abstracts
 CINAHL
 Excerpta Medica
